--- a/Tracey's Folder/To use for equations - surveyFactorsAll_Tracey with SSB data.xlsx
+++ b/Tracey's Folder/To use for equations - surveyFactorsAll_Tracey with SSB data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\Tracey's Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2FF16F-7897-478E-A0E1-E75A58AC03F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DC08F8-ACB1-4C1F-A1A6-4436D1DC3EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="65">
   <si>
     <t>Survey_Number</t>
   </si>
@@ -843,9 +843,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -862,6 +859,9 @@
     </xf>
     <xf numFmtId="22" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1221,9 +1221,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,7 +1234,7 @@
     <col min="4" max="5" width="12.42578125" style="8" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" style="2" customWidth="1"/>
@@ -1607,7 +1607,7 @@
       <c r="K6" s="2">
         <v>165085</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="8">
         <v>165085</v>
       </c>
       <c r="M6" s="4"/>
@@ -1616,7 +1616,7 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="12"/>
-      <c r="V6" s="11"/>
+      <c r="V6" s="2"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
     </row>
@@ -1732,7 +1732,7 @@
       <c r="K8" s="2">
         <v>240453</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="6">
         <v>208259</v>
       </c>
       <c r="M8" s="4">
@@ -1810,7 +1810,7 @@
       <c r="K9" s="2">
         <v>85892</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="8">
         <v>38201</v>
       </c>
       <c r="M9" s="4"/>
@@ -1851,7 +1851,7 @@
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="8">
         <v>0</v>
       </c>
       <c r="M10" s="4"/>
@@ -1892,7 +1892,7 @@
       <c r="K11" s="2">
         <v>3900</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="8">
         <v>0</v>
       </c>
       <c r="M11" s="4"/>
@@ -2023,7 +2023,7 @@
       <c r="K13" s="2">
         <v>28999</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="31">
         <v>15306</v>
       </c>
       <c r="M13" s="4">
@@ -2101,7 +2101,7 @@
       <c r="K14" s="2">
         <v>100250</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="8">
         <v>100250</v>
       </c>
       <c r="M14" s="4">
@@ -2345,7 +2345,7 @@
       <c r="K18" s="2">
         <v>132399</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="8">
         <v>112849</v>
       </c>
       <c r="M18" s="4">
@@ -2423,7 +2423,7 @@
       <c r="K19" s="2">
         <v>80923</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="31">
         <v>54402</v>
       </c>
       <c r="M19" s="4">
@@ -2595,7 +2595,7 @@
       <c r="K22" s="2">
         <v>79250</v>
       </c>
-      <c r="L22" s="32">
+      <c r="L22" s="31">
         <v>67183</v>
       </c>
       <c r="M22" s="4">
@@ -2679,7 +2679,7 @@
       <c r="K23" s="2">
         <v>37842</v>
       </c>
-      <c r="L23" s="32">
+      <c r="L23" s="31">
         <v>29146</v>
       </c>
       <c r="M23" s="4">
@@ -2757,7 +2757,7 @@
       <c r="K24" s="2">
         <v>39160</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="8">
         <v>39160</v>
       </c>
       <c r="M24" s="4">
@@ -2835,7 +2835,7 @@
       <c r="K25" s="2">
         <v>36481</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="8">
         <v>28178</v>
       </c>
       <c r="M25" s="4">
@@ -2907,7 +2907,7 @@
       <c r="K26" s="2">
         <v>123426</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="8">
         <v>99932</v>
       </c>
       <c r="M26" s="4"/>
@@ -2948,7 +2948,7 @@
       <c r="K27" s="2">
         <v>12380</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="8">
         <v>12380</v>
       </c>
       <c r="M27" s="4">
@@ -3023,7 +3023,7 @@
       <c r="K28" s="2">
         <v>58223</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="8">
         <v>41653</v>
       </c>
       <c r="M28" s="4"/>
@@ -3073,7 +3073,7 @@
       <c r="K29" s="2">
         <v>35613</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="8">
         <v>35613</v>
       </c>
       <c r="M29" s="4">
@@ -3192,7 +3192,7 @@
       <c r="K31" s="2">
         <v>3843</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="8">
         <v>3843</v>
       </c>
       <c r="M31" s="4">
@@ -3432,7 +3432,7 @@
       <c r="K34" s="2">
         <v>114119</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="8">
         <v>113430</v>
       </c>
       <c r="M34" s="4">
@@ -3551,7 +3551,7 @@
       <c r="K36" s="2">
         <v>108837</v>
       </c>
-      <c r="L36" s="30">
+      <c r="L36" s="31">
         <v>88312</v>
       </c>
       <c r="M36" s="4">
@@ -3629,7 +3629,7 @@
       <c r="K37" s="2">
         <v>174042</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="8">
         <v>133642</v>
       </c>
       <c r="M37" s="4"/>
@@ -3673,7 +3673,7 @@
       <c r="K38" s="2">
         <v>4857</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="8">
         <v>0</v>
       </c>
       <c r="M38" s="4"/>
@@ -3717,7 +3717,7 @@
       <c r="K39" s="2">
         <v>10403</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="8">
         <v>0</v>
       </c>
       <c r="M39" s="4"/>
@@ -3821,7 +3821,7 @@
       <c r="K41" s="2">
         <v>73331</v>
       </c>
-      <c r="L41" s="32">
+      <c r="L41" s="31">
         <v>71589</v>
       </c>
       <c r="M41" s="4"/>
@@ -3881,7 +3881,7 @@
       <c r="K42" s="2">
         <v>30351</v>
       </c>
-      <c r="L42" s="32">
+      <c r="L42" s="31">
         <v>20159</v>
       </c>
       <c r="M42" s="4"/>
@@ -3941,7 +3941,7 @@
       <c r="K43" s="2">
         <v>107204</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="8">
         <v>107204</v>
       </c>
       <c r="M43" s="4">
@@ -4019,7 +4019,7 @@
       <c r="K44" s="2">
         <v>10564</v>
       </c>
-      <c r="L44" s="32">
+      <c r="L44" s="31">
         <v>5272</v>
       </c>
       <c r="M44" s="4"/>
@@ -4079,7 +4079,7 @@
       <c r="K45" s="2">
         <v>101447</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="8">
         <v>72263</v>
       </c>
       <c r="M45" s="4">
@@ -4157,7 +4157,7 @@
       <c r="K46" s="2">
         <v>52765</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="8">
         <v>13017</v>
       </c>
       <c r="M46" s="4">
@@ -4235,7 +4235,7 @@
       <c r="K47" s="2">
         <v>66781</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="8">
         <v>61964</v>
       </c>
       <c r="M47" s="4">
@@ -4313,7 +4313,7 @@
       <c r="K48" s="2">
         <v>20579</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L48" s="8">
         <v>2400</v>
       </c>
       <c r="M48" s="4">
@@ -4640,7 +4640,7 @@
       <c r="K52" s="2">
         <v>27110</v>
       </c>
-      <c r="L52" s="32">
+      <c r="L52" s="31">
         <v>17489</v>
       </c>
       <c r="M52" s="4">
@@ -4734,7 +4734,7 @@
       <c r="K53" s="2">
         <v>113333</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="8">
         <v>113333</v>
       </c>
       <c r="M53" s="4">
@@ -4888,7 +4888,7 @@
       <c r="K55" s="2">
         <v>167502</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L55" s="8">
         <v>145400</v>
       </c>
       <c r="M55" s="4">
@@ -4982,7 +4982,7 @@
       <c r="K56" s="2">
         <v>111120</v>
       </c>
-      <c r="L56" s="2">
+      <c r="L56" s="8">
         <v>74380</v>
       </c>
       <c r="M56" s="4">
@@ -5176,7 +5176,7 @@
       <c r="K58" s="2">
         <v>7618</v>
       </c>
-      <c r="L58" s="32">
+      <c r="L58" s="31">
         <v>6897</v>
       </c>
       <c r="M58" s="4">
@@ -5270,7 +5270,7 @@
       <c r="K59" s="2">
         <v>91701</v>
       </c>
-      <c r="L59" s="2">
+      <c r="L59" s="8">
         <v>91701</v>
       </c>
       <c r="M59" s="4">
@@ -5445,7 +5445,7 @@
       <c r="K61" s="2">
         <v>128825</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L61" s="8">
         <v>110942</v>
       </c>
       <c r="M61" s="4">
@@ -5523,7 +5523,7 @@
       <c r="K62" s="2">
         <v>48054</v>
       </c>
-      <c r="L62" s="2">
+      <c r="L62" s="8">
         <v>16678</v>
       </c>
       <c r="M62" s="4">
@@ -5685,7 +5685,7 @@
       <c r="K64" s="2">
         <v>586</v>
       </c>
-      <c r="L64" s="32">
+      <c r="L64" s="31">
         <v>0</v>
       </c>
       <c r="M64" s="4">
@@ -5766,7 +5766,7 @@
       <c r="K65" s="2">
         <v>9144</v>
       </c>
-      <c r="L65" s="32">
+      <c r="L65" s="31">
         <v>8979</v>
       </c>
       <c r="M65" s="4">
@@ -5847,7 +5847,7 @@
       <c r="K66" s="2">
         <v>114069</v>
       </c>
-      <c r="L66" s="2">
+      <c r="L66" s="8">
         <v>114069</v>
       </c>
       <c r="M66" s="4">
@@ -5928,7 +5928,7 @@
       <c r="K67" s="2">
         <v>107641</v>
       </c>
-      <c r="L67" s="2">
+      <c r="L67" s="8">
         <v>96009</v>
       </c>
       <c r="M67" s="4">
@@ -6009,7 +6009,7 @@
       <c r="K68" s="2">
         <v>50893</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L68" s="8">
         <v>33200</v>
       </c>
       <c r="M68" s="4">
@@ -6090,7 +6090,7 @@
       <c r="K69" s="2">
         <v>22787</v>
       </c>
-      <c r="L69" s="30">
+      <c r="L69" s="31">
         <v>10696</v>
       </c>
       <c r="M69" s="4">
@@ -6333,7 +6333,7 @@
       <c r="K72" s="2">
         <v>8806</v>
       </c>
-      <c r="L72" s="32">
+      <c r="L72" s="31">
         <v>4457</v>
       </c>
       <c r="M72" s="4">
@@ -6414,7 +6414,7 @@
       <c r="K73" s="2">
         <v>45920</v>
       </c>
-      <c r="L73" s="2">
+      <c r="L73" s="8">
         <v>45920</v>
       </c>
       <c r="M73" s="4">
@@ -6495,7 +6495,7 @@
       <c r="K74" s="2">
         <v>3032</v>
       </c>
-      <c r="L74" s="32">
+      <c r="L74" s="31">
         <v>1730</v>
       </c>
       <c r="M74" s="4">
@@ -6579,7 +6579,7 @@
       <c r="K75" s="2">
         <v>32769</v>
       </c>
-      <c r="L75" s="2">
+      <c r="L75" s="8">
         <v>23814</v>
       </c>
       <c r="M75" s="4">
@@ -6660,7 +6660,7 @@
       <c r="K76" s="2">
         <v>191802</v>
       </c>
-      <c r="L76" s="30">
+      <c r="L76" s="31">
         <v>183761</v>
       </c>
       <c r="M76" s="4">
@@ -6741,7 +6741,7 @@
       <c r="K77" s="2">
         <v>228870</v>
       </c>
-      <c r="L77" s="30">
+      <c r="L77" s="31">
         <v>190288</v>
       </c>
       <c r="M77" s="4">
@@ -6822,7 +6822,7 @@
       <c r="K78" s="2">
         <v>8064</v>
       </c>
-      <c r="L78" s="2">
+      <c r="L78" s="8">
         <v>0</v>
       </c>
       <c r="M78" s="4">
@@ -6984,7 +6984,7 @@
       <c r="K80" s="2">
         <v>14238</v>
       </c>
-      <c r="L80" s="32">
+      <c r="L80" s="31">
         <v>13509</v>
       </c>
       <c r="M80" s="4">
@@ -7065,7 +7065,7 @@
       <c r="K81" s="2">
         <v>3182</v>
       </c>
-      <c r="L81" s="32">
+      <c r="L81" s="31">
         <v>1257</v>
       </c>
       <c r="M81" s="4">
@@ -7146,7 +7146,7 @@
       <c r="K82" s="2">
         <v>25445</v>
       </c>
-      <c r="L82" s="2">
+      <c r="L82" s="8">
         <v>25445</v>
       </c>
       <c r="M82" s="4">
@@ -7227,7 +7227,7 @@
       <c r="K83" s="2">
         <v>72300</v>
       </c>
-      <c r="L83" s="2">
+      <c r="L83" s="8">
         <v>67338</v>
       </c>
       <c r="M83" s="4">
@@ -7308,7 +7308,7 @@
       <c r="K84" s="2">
         <v>32159</v>
       </c>
-      <c r="L84" s="2">
+      <c r="L84" s="8">
         <v>17145</v>
       </c>
       <c r="M84" s="4">
@@ -7389,7 +7389,7 @@
       <c r="K85" s="2">
         <v>111046</v>
       </c>
-      <c r="L85" s="2">
+      <c r="L85" s="8">
         <v>106207</v>
       </c>
       <c r="M85" s="4">
@@ -7470,7 +7470,7 @@
       <c r="K86" s="2">
         <v>0</v>
       </c>
-      <c r="L86" s="2">
+      <c r="L86" s="8">
         <v>0</v>
       </c>
       <c r="M86" s="4">
@@ -7517,20 +7517,20 @@
         <v>39742.772222222222</v>
       </c>
     </row>
-    <row r="87" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="34">
+      <c r="B87" s="33">
         <v>39991</v>
       </c>
-      <c r="C87" s="32">
+      <c r="C87" s="31">
         <v>1</v>
       </c>
-      <c r="D87" s="32" t="s">
+      <c r="D87" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E87" s="32" t="s">
+      <c r="E87" s="31" t="s">
         <v>51</v>
       </c>
       <c r="F87" s="30">
@@ -7542,43 +7542,43 @@
       <c r="H87" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I87" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="J87" s="33" t="s">
+      <c r="I87" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J87" s="32" t="s">
         <v>10</v>
       </c>
       <c r="K87" s="30">
         <v>7542</v>
       </c>
-      <c r="L87" s="32">
+      <c r="L87" s="31">
         <v>7542</v>
       </c>
-      <c r="M87" s="35">
+      <c r="M87" s="34">
         <f t="shared" si="22"/>
         <v>0.875</v>
       </c>
-      <c r="N87" s="35">
+      <c r="N87" s="34">
         <f t="shared" si="23"/>
         <v>0.20310185185371665</v>
       </c>
-      <c r="O87" s="36">
+      <c r="O87" s="35">
         <f t="shared" si="24"/>
         <v>0.32810185185371665</v>
       </c>
-      <c r="P87" s="37">
+      <c r="P87" s="36">
         <f t="shared" si="25"/>
         <v>7.8744444444891997</v>
       </c>
-      <c r="Q87" s="35">
+      <c r="Q87" s="34">
         <f t="shared" si="26"/>
         <v>0.88194444444525288</v>
       </c>
-      <c r="R87" s="36">
+      <c r="R87" s="35">
         <f t="shared" si="27"/>
         <v>6.9444444452528842E-3</v>
       </c>
-      <c r="S87" s="37">
+      <c r="S87" s="36">
         <f t="shared" si="28"/>
         <v>0.16666666668606922</v>
       </c>
@@ -7588,30 +7588,30 @@
       <c r="U87" s="30">
         <v>1.0388430000000001E-2</v>
       </c>
-      <c r="V87" s="38">
+      <c r="V87" s="37">
         <v>39991.875</v>
       </c>
-      <c r="W87" s="38">
+      <c r="W87" s="37">
         <v>39992.203101851854</v>
       </c>
-      <c r="X87" s="38">
+      <c r="X87" s="37">
         <v>39991.881944444445</v>
       </c>
     </row>
-    <row r="88" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="34">
+      <c r="B88" s="33">
         <v>40005</v>
       </c>
-      <c r="C88" s="32">
+      <c r="C88" s="31">
         <v>2</v>
       </c>
-      <c r="D88" s="32" t="s">
+      <c r="D88" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E88" s="32" t="s">
+      <c r="E88" s="31" t="s">
         <v>51</v>
       </c>
       <c r="F88" s="30">
@@ -7623,43 +7623,43 @@
       <c r="H88" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I88" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="J88" s="33" t="s">
+      <c r="I88" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J88" s="32" t="s">
         <v>10</v>
       </c>
       <c r="K88" s="30">
         <v>45744</v>
       </c>
-      <c r="L88" s="32">
+      <c r="L88" s="31">
         <v>44725</v>
       </c>
-      <c r="M88" s="35">
+      <c r="M88" s="34">
         <f t="shared" si="22"/>
         <v>0.875</v>
       </c>
-      <c r="N88" s="35">
+      <c r="N88" s="34">
         <f t="shared" si="23"/>
         <v>0.14206018518598285</v>
       </c>
-      <c r="O88" s="36">
+      <c r="O88" s="35">
         <f t="shared" si="24"/>
         <v>0.26706018518598285</v>
       </c>
-      <c r="P88" s="37">
+      <c r="P88" s="36">
         <f t="shared" si="25"/>
         <v>6.4094444444635883</v>
       </c>
-      <c r="Q88" s="35">
+      <c r="Q88" s="34">
         <f t="shared" si="26"/>
         <v>0.87916666666569654</v>
       </c>
-      <c r="R88" s="36">
+      <c r="R88" s="35">
         <f t="shared" si="27"/>
         <v>4.166666665696539E-3</v>
       </c>
-      <c r="S88" s="37">
+      <c r="S88" s="36">
         <f t="shared" si="28"/>
         <v>9.9999999976716936E-2</v>
       </c>
@@ -7669,30 +7669,30 @@
       <c r="U88" s="30">
         <v>6.3888267999999998E-2</v>
       </c>
-      <c r="V88" s="38">
+      <c r="V88" s="37">
         <v>40005.875</v>
       </c>
-      <c r="W88" s="38">
+      <c r="W88" s="37">
         <v>40006.142060185186</v>
       </c>
-      <c r="X88" s="38">
+      <c r="X88" s="37">
         <v>40005.879166666666</v>
       </c>
     </row>
-    <row r="89" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="34">
+      <c r="B89" s="33">
         <v>40019</v>
       </c>
-      <c r="C89" s="32">
+      <c r="C89" s="31">
         <v>3</v>
       </c>
-      <c r="D89" s="32" t="s">
+      <c r="D89" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E89" s="32" t="s">
+      <c r="E89" s="31" t="s">
         <v>51</v>
       </c>
       <c r="F89" s="30">
@@ -7704,43 +7704,43 @@
       <c r="H89" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I89" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="J89" s="33" t="s">
+      <c r="I89" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J89" s="32" t="s">
         <v>10</v>
       </c>
       <c r="K89" s="30">
         <v>19338</v>
       </c>
-      <c r="L89" s="32">
+      <c r="L89" s="31">
         <v>13133</v>
       </c>
-      <c r="M89" s="35">
+      <c r="M89" s="34">
         <f t="shared" si="22"/>
         <v>0.89583333333575865</v>
       </c>
-      <c r="N89" s="35">
+      <c r="N89" s="34">
         <f t="shared" si="23"/>
         <v>0.15043981481721858</v>
       </c>
-      <c r="O89" s="36">
+      <c r="O89" s="35">
         <f t="shared" si="24"/>
         <v>0.25460648148145992</v>
       </c>
-      <c r="P89" s="37">
+      <c r="P89" s="36">
         <f t="shared" si="25"/>
         <v>6.1105555555550382</v>
       </c>
-      <c r="Q89" s="35">
+      <c r="Q89" s="34">
         <f t="shared" si="26"/>
         <v>0.86736111110803904</v>
       </c>
-      <c r="R89" s="36">
+      <c r="R89" s="35">
         <f t="shared" si="27"/>
         <v>1.0284722222277196</v>
       </c>
-      <c r="S89" s="37">
+      <c r="S89" s="36">
         <f t="shared" si="28"/>
         <v>-0.6833333334652707</v>
       </c>
@@ -7750,30 +7750,30 @@
       <c r="U89" s="30">
         <v>2.3698528999999999E-2</v>
       </c>
-      <c r="V89" s="38">
+      <c r="V89" s="37">
         <v>40019.895833333336</v>
       </c>
-      <c r="W89" s="38">
+      <c r="W89" s="37">
         <v>40020.150439814817</v>
       </c>
-      <c r="X89" s="38">
+      <c r="X89" s="37">
         <v>40019.867361111108</v>
       </c>
     </row>
-    <row r="90" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="34">
+      <c r="B90" s="33">
         <v>40033</v>
       </c>
-      <c r="C90" s="32">
+      <c r="C90" s="31">
         <v>4</v>
       </c>
-      <c r="D90" s="32" t="s">
+      <c r="D90" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E90" s="32" t="s">
+      <c r="E90" s="31" t="s">
         <v>51</v>
       </c>
       <c r="F90" s="30">
@@ -7785,43 +7785,43 @@
       <c r="H90" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I90" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="J90" s="33" t="s">
+      <c r="I90" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J90" s="32" t="s">
         <v>10</v>
       </c>
       <c r="K90" s="30">
         <v>14875</v>
       </c>
-      <c r="L90" s="32">
+      <c r="L90" s="31">
         <v>12103</v>
       </c>
-      <c r="M90" s="35">
+      <c r="M90" s="34">
         <f t="shared" si="22"/>
         <v>0.89583333333575865</v>
       </c>
-      <c r="N90" s="35">
+      <c r="N90" s="34">
         <f t="shared" si="23"/>
         <v>9.3622685184527654E-2</v>
       </c>
-      <c r="O90" s="36">
+      <c r="O90" s="35">
         <f t="shared" si="24"/>
         <v>0.197789351848769</v>
       </c>
-      <c r="P90" s="37">
+      <c r="P90" s="36">
         <f t="shared" si="25"/>
         <v>4.746944444370456</v>
       </c>
-      <c r="Q90" s="35">
+      <c r="Q90" s="34">
         <f t="shared" si="26"/>
         <v>0.8555555555576575</v>
       </c>
-      <c r="R90" s="36">
+      <c r="R90" s="35">
         <f t="shared" si="27"/>
         <v>1.0402777777781012</v>
       </c>
-      <c r="S90" s="37">
+      <c r="S90" s="36">
         <f t="shared" si="28"/>
         <v>-0.96666666667442769</v>
       </c>
@@ -7831,13 +7831,13 @@
       <c r="U90" s="30">
         <v>1.8596250000000002E-2</v>
       </c>
-      <c r="V90" s="38">
+      <c r="V90" s="37">
         <v>40033.895833333336</v>
       </c>
-      <c r="W90" s="38">
+      <c r="W90" s="37">
         <v>40034.093622685185</v>
       </c>
-      <c r="X90" s="38">
+      <c r="X90" s="37">
         <v>40033.855555555558</v>
       </c>
     </row>
@@ -7875,7 +7875,7 @@
       <c r="K91" s="2">
         <v>90118</v>
       </c>
-      <c r="L91" s="2">
+      <c r="L91" s="8">
         <v>90118</v>
       </c>
       <c r="M91" s="4">
@@ -7956,7 +7956,7 @@
       <c r="K92" s="2">
         <v>116084</v>
       </c>
-      <c r="L92" s="30">
+      <c r="L92" s="31">
         <v>96977</v>
       </c>
       <c r="M92" s="4">
@@ -8003,20 +8003,20 @@
         <v>40050.841666666667</v>
       </c>
     </row>
-    <row r="93" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="34">
+      <c r="B93" s="33">
         <v>40046</v>
       </c>
-      <c r="C93" s="32">
+      <c r="C93" s="31">
         <v>5</v>
       </c>
-      <c r="D93" s="32" t="s">
+      <c r="D93" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E93" s="32" t="s">
+      <c r="E93" s="31" t="s">
         <v>51</v>
       </c>
       <c r="F93" s="30">
@@ -8027,36 +8027,36 @@
         <v>12</v>
       </c>
       <c r="K93" s="30"/>
-      <c r="L93" s="30">
+      <c r="L93" s="31">
         <v>0</v>
       </c>
-      <c r="M93" s="35"/>
-      <c r="N93" s="35"/>
-      <c r="O93" s="36"/>
-      <c r="P93" s="37"/>
-      <c r="Q93" s="35"/>
-      <c r="R93" s="36"/>
-      <c r="S93" s="37"/>
+      <c r="M93" s="34"/>
+      <c r="N93" s="34"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="36"/>
+      <c r="Q93" s="34"/>
+      <c r="R93" s="35"/>
+      <c r="S93" s="36"/>
       <c r="T93" s="30"/>
       <c r="U93" s="30"/>
-      <c r="V93" s="38"/>
-      <c r="W93" s="38"/>
-      <c r="X93" s="38"/>
-    </row>
-    <row r="94" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V93" s="37"/>
+      <c r="W93" s="37"/>
+      <c r="X93" s="37"/>
+    </row>
+    <row r="94" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="34">
+      <c r="B94" s="33">
         <v>40061</v>
       </c>
-      <c r="C94" s="32">
+      <c r="C94" s="31">
         <v>5</v>
       </c>
-      <c r="D94" s="32" t="s">
+      <c r="D94" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E94" s="32" t="s">
+      <c r="E94" s="31" t="s">
         <v>52</v>
       </c>
       <c r="F94" s="30">
@@ -8068,43 +8068,43 @@
       <c r="H94" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I94" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="J94" s="33" t="s">
+      <c r="I94" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J94" s="32" t="s">
         <v>10</v>
       </c>
       <c r="K94" s="30">
         <v>0</v>
       </c>
-      <c r="L94" s="32">
+      <c r="L94" s="31">
         <v>0</v>
       </c>
-      <c r="M94" s="35">
+      <c r="M94" s="34">
         <f t="shared" si="22"/>
         <v>0.875</v>
       </c>
-      <c r="N94" s="35">
+      <c r="N94" s="34">
         <f t="shared" si="23"/>
         <v>5.7731481480004732E-2</v>
       </c>
-      <c r="O94" s="36">
+      <c r="O94" s="35">
         <f t="shared" si="24"/>
         <v>0.18273148148000473</v>
       </c>
-      <c r="P94" s="37">
+      <c r="P94" s="36">
         <f t="shared" si="25"/>
         <v>4.3855555555201136</v>
       </c>
-      <c r="Q94" s="35">
+      <c r="Q94" s="34">
         <f t="shared" si="26"/>
         <v>0.84166666666715173</v>
       </c>
-      <c r="R94" s="36">
+      <c r="R94" s="35">
         <f t="shared" si="27"/>
         <v>1.0333333333328483</v>
       </c>
-      <c r="S94" s="37">
+      <c r="S94" s="36">
         <f t="shared" si="28"/>
         <v>-0.79999999998835847</v>
       </c>
@@ -8114,16 +8114,16 @@
       <c r="U94" s="30">
         <v>2.5122669999999999E-3</v>
       </c>
-      <c r="V94" s="38">
+      <c r="V94" s="37">
         <v>40046.875</v>
       </c>
-      <c r="W94" s="38">
+      <c r="W94" s="37">
         <v>40047.05773148148</v>
       </c>
-      <c r="X94" s="38">
+      <c r="X94" s="37">
         <v>40046.841666666667</v>
       </c>
-      <c r="Y94" s="33" t="s">
+      <c r="Y94" s="32" t="s">
         <v>64</v>
       </c>
     </row>
@@ -8158,7 +8158,7 @@
       <c r="K95" s="2">
         <v>37522</v>
       </c>
-      <c r="L95" s="2">
+      <c r="L95" s="8">
         <v>37522</v>
       </c>
       <c r="M95" s="4">
@@ -8242,7 +8242,7 @@
       <c r="K96" s="2">
         <v>70024</v>
       </c>
-      <c r="L96" s="30">
+      <c r="L96" s="31">
         <v>56887</v>
       </c>
       <c r="M96" s="4">
@@ -8323,7 +8323,7 @@
       <c r="K97" s="2">
         <v>49292</v>
       </c>
-      <c r="L97" s="30">
+      <c r="L97" s="31">
         <v>27894</v>
       </c>
       <c r="M97" s="4">
@@ -8404,7 +8404,7 @@
       <c r="K98" s="2">
         <v>71809</v>
       </c>
-      <c r="L98" s="30">
+      <c r="L98" s="31">
         <v>52328</v>
       </c>
       <c r="M98" s="4">
@@ -8482,7 +8482,7 @@
       <c r="K99" s="2">
         <v>15195</v>
       </c>
-      <c r="L99" s="2">
+      <c r="L99" s="8">
         <v>15195</v>
       </c>
       <c r="M99" s="4">
@@ -8656,7 +8656,7 @@
       <c r="K101" s="2">
         <v>21808</v>
       </c>
-      <c r="L101" s="32">
+      <c r="L101" s="31">
         <v>21808</v>
       </c>
       <c r="M101" s="4">
@@ -8737,7 +8737,7 @@
       <c r="K102" s="2">
         <v>9439</v>
       </c>
-      <c r="L102" s="32">
+      <c r="L102" s="31">
         <v>6493</v>
       </c>
       <c r="M102" s="4">
@@ -8818,7 +8818,7 @@
       <c r="K103" s="2">
         <v>13528</v>
       </c>
-      <c r="L103" s="32">
+      <c r="L103" s="31">
         <v>12176</v>
       </c>
       <c r="M103" s="4">
@@ -8899,7 +8899,7 @@
       <c r="K104" s="2">
         <v>85180</v>
       </c>
-      <c r="L104" s="2">
+      <c r="L104" s="8">
         <v>85180</v>
       </c>
       <c r="M104" s="4">
@@ -8980,7 +8980,7 @@
       <c r="K105" s="2">
         <v>8011</v>
       </c>
-      <c r="L105" s="32">
+      <c r="L105" s="31">
         <v>6150</v>
       </c>
       <c r="M105" s="4">
@@ -9061,7 +9061,7 @@
       <c r="K106" s="2">
         <v>58570</v>
       </c>
-      <c r="L106" s="2">
+      <c r="L106" s="8">
         <v>40510</v>
       </c>
       <c r="M106" s="4">
@@ -9142,7 +9142,7 @@
       <c r="K107" s="2">
         <v>1238</v>
       </c>
-      <c r="L107" s="32">
+      <c r="L107" s="31">
         <v>261</v>
       </c>
       <c r="M107" s="4">
@@ -9196,6 +9196,9 @@
       <c r="B108" s="3">
         <v>40429</v>
       </c>
+      <c r="D108" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="E108" s="8" t="s">
         <v>52</v>
       </c>
@@ -9217,7 +9220,7 @@
       <c r="K108" s="2">
         <v>66839</v>
       </c>
-      <c r="L108" s="2">
+      <c r="L108" s="8">
         <v>66839</v>
       </c>
       <c r="M108" s="4">
@@ -9304,7 +9307,7 @@
       <c r="K109" s="2">
         <v>65230</v>
       </c>
-      <c r="L109" s="2">
+      <c r="L109" s="8">
         <v>51673</v>
       </c>
       <c r="M109" s="4">
@@ -9358,6 +9361,9 @@
       <c r="B110" s="3">
         <v>40444</v>
       </c>
+      <c r="D110" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="E110" s="8" t="s">
         <v>52</v>
       </c>
@@ -9379,7 +9385,7 @@
       <c r="K110" s="2">
         <v>16637</v>
       </c>
-      <c r="L110" s="2">
+      <c r="L110" s="8">
         <v>16637</v>
       </c>
       <c r="M110" s="4">
@@ -9463,7 +9469,7 @@
       <c r="K111" s="2">
         <v>0</v>
       </c>
-      <c r="L111" s="39">
+      <c r="L111" s="38">
         <v>0</v>
       </c>
       <c r="M111" s="4"/>
@@ -9510,7 +9516,7 @@
       <c r="K112" s="2">
         <v>36068</v>
       </c>
-      <c r="L112" s="2">
+      <c r="L112" s="8">
         <v>28686</v>
       </c>
       <c r="M112" s="4">
@@ -9591,7 +9597,7 @@
       <c r="K113" s="2">
         <v>8721</v>
       </c>
-      <c r="L113" s="2">
+      <c r="L113" s="8">
         <v>1687</v>
       </c>
       <c r="M113" s="4">
@@ -9645,6 +9651,9 @@
       <c r="B114" s="3">
         <v>40477</v>
       </c>
+      <c r="D114" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="E114" s="8" t="s">
         <v>52</v>
       </c>
@@ -9666,7 +9675,7 @@
       <c r="K114" s="2">
         <v>3820</v>
       </c>
-      <c r="L114" s="2">
+      <c r="L114" s="8">
         <v>3820</v>
       </c>
       <c r="M114" s="4">
@@ -9831,7 +9840,7 @@
       <c r="K116" s="2">
         <v>38600</v>
       </c>
-      <c r="L116" s="32">
+      <c r="L116" s="31">
         <v>33507</v>
       </c>
       <c r="M116" s="4">
@@ -9912,7 +9921,7 @@
       <c r="K117" s="2">
         <v>34576</v>
       </c>
-      <c r="L117" s="32">
+      <c r="L117" s="31">
         <v>29229</v>
       </c>
       <c r="M117" s="4">
@@ -9993,7 +10002,7 @@
       <c r="K118" s="2">
         <v>16898</v>
       </c>
-      <c r="L118" s="32">
+      <c r="L118" s="31">
         <v>12091</v>
       </c>
       <c r="M118" s="4">
@@ -10074,7 +10083,7 @@
       <c r="K119" s="2">
         <v>30405</v>
       </c>
-      <c r="L119" s="2">
+      <c r="L119" s="8">
         <v>30405</v>
       </c>
       <c r="M119" s="4">
@@ -10155,7 +10164,7 @@
       <c r="K120" s="2">
         <v>12933</v>
       </c>
-      <c r="L120" s="32">
+      <c r="L120" s="31">
         <v>10052</v>
       </c>
       <c r="M120" s="4">
@@ -10236,7 +10245,7 @@
       <c r="K121" s="2">
         <v>116508</v>
       </c>
-      <c r="L121" s="2">
+      <c r="L121" s="8">
         <v>110062</v>
       </c>
       <c r="M121" s="4">
@@ -10317,7 +10326,7 @@
       <c r="K122" s="2">
         <v>143937</v>
       </c>
-      <c r="L122" s="2">
+      <c r="L122" s="8">
         <v>117625</v>
       </c>
       <c r="M122" s="4">
@@ -10401,7 +10410,7 @@
       <c r="K123" s="2">
         <v>9611</v>
       </c>
-      <c r="L123" s="2">
+      <c r="L123" s="8">
         <v>0</v>
       </c>
       <c r="M123" s="4">
@@ -10726,7 +10735,7 @@
       <c r="K128" s="2">
         <v>38756</v>
       </c>
-      <c r="L128" s="32">
+      <c r="L128" s="31">
         <v>31009</v>
       </c>
       <c r="M128" s="4">
@@ -10807,7 +10816,7 @@
       <c r="K129" s="2">
         <v>20939</v>
       </c>
-      <c r="L129" s="32">
+      <c r="L129" s="31">
         <v>15507</v>
       </c>
       <c r="M129" s="4">
@@ -10888,7 +10897,7 @@
       <c r="K130" s="2">
         <v>33541</v>
       </c>
-      <c r="L130" s="30">
+      <c r="L130" s="31">
         <v>33541</v>
       </c>
       <c r="M130" s="4">
@@ -10969,7 +10978,7 @@
       <c r="K131" s="2">
         <v>9550</v>
       </c>
-      <c r="L131" s="32">
+      <c r="L131" s="31">
         <v>6585</v>
       </c>
       <c r="M131" s="4">
@@ -11050,7 +11059,7 @@
       <c r="K132" s="2">
         <v>107994</v>
       </c>
-      <c r="L132" s="30">
+      <c r="L132" s="31">
         <v>101453</v>
       </c>
       <c r="M132" s="4">
@@ -11131,7 +11140,7 @@
       <c r="K133" s="2">
         <v>59886</v>
       </c>
-      <c r="L133" s="30">
+      <c r="L133" s="31">
         <v>37651</v>
       </c>
       <c r="M133" s="4">
@@ -11212,7 +11221,7 @@
       <c r="K134" s="2">
         <v>59213</v>
       </c>
-      <c r="L134" s="30">
+      <c r="L134" s="31">
         <v>41725</v>
       </c>
       <c r="M134" s="4">
@@ -11293,7 +11302,7 @@
       <c r="K135" s="2">
         <v>21475</v>
       </c>
-      <c r="L135" s="30">
+      <c r="L135" s="31">
         <v>8711</v>
       </c>
       <c r="M135" s="4">
@@ -11415,7 +11424,7 @@
       <c r="K137" s="2">
         <v>0</v>
       </c>
-      <c r="L137" s="30">
+      <c r="L137" s="31">
         <v>0</v>
       </c>
       <c r="M137" s="4"/>
@@ -11895,7 +11904,7 @@
       <c r="K143" s="2">
         <v>53509</v>
       </c>
-      <c r="L143" s="5">
+      <c r="L143" s="8">
         <v>53174</v>
       </c>
       <c r="M143" s="4">
@@ -12063,7 +12072,7 @@
       <c r="K145" s="2">
         <v>118088</v>
       </c>
-      <c r="L145" s="2">
+      <c r="L145" s="8">
         <v>53509</v>
       </c>
       <c r="M145" s="4">
@@ -12231,7 +12240,7 @@
       <c r="K147" s="2">
         <v>37906</v>
       </c>
-      <c r="L147" s="2">
+      <c r="L147" s="8">
         <v>108500</v>
       </c>
       <c r="M147" s="4">
@@ -12315,7 +12324,7 @@
       <c r="K148" s="2">
         <v>48419</v>
       </c>
-      <c r="L148" s="2">
+      <c r="L148" s="8">
         <v>13384</v>
       </c>
       <c r="M148" s="4">
@@ -12384,7 +12393,7 @@
       <c r="H149" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L149" s="2">
+      <c r="L149" s="8">
         <v>33432</v>
       </c>
       <c r="M149" s="4"/>
@@ -12432,7 +12441,7 @@
       <c r="K150" s="2">
         <v>6606</v>
       </c>
-      <c r="L150" s="2">
+      <c r="L150" s="8">
         <v>0</v>
       </c>
       <c r="M150" s="4">
@@ -12939,7 +12948,7 @@
       <c r="K156" s="2">
         <v>51496</v>
       </c>
-      <c r="L156" s="2">
+      <c r="L156" s="8">
         <v>51496</v>
       </c>
       <c r="M156" s="4">
@@ -13101,7 +13110,7 @@
       <c r="K158" s="2">
         <v>70385</v>
       </c>
-      <c r="L158" s="2">
+      <c r="L158" s="8">
         <v>59467</v>
       </c>
       <c r="M158" s="4">
@@ -13263,7 +13272,7 @@
       <c r="K160" s="2">
         <v>79348</v>
       </c>
-      <c r="L160" s="2">
+      <c r="L160" s="8">
         <v>63342</v>
       </c>
       <c r="M160" s="4">
@@ -13344,7 +13353,7 @@
       <c r="K161" s="2">
         <v>10510</v>
       </c>
-      <c r="L161" s="2">
+      <c r="L161" s="8">
         <v>0</v>
       </c>
       <c r="M161" s="4">
@@ -13425,7 +13434,7 @@
       <c r="K162" s="2">
         <v>21294</v>
       </c>
-      <c r="L162" s="2">
+      <c r="L162" s="8">
         <v>15580</v>
       </c>
       <c r="M162" s="4">
@@ -13846,7 +13855,7 @@
       <c r="K167" s="2">
         <v>16156</v>
       </c>
-      <c r="L167" s="2">
+      <c r="L167" s="8">
         <v>16156</v>
       </c>
       <c r="M167" s="4">
@@ -14040,7 +14049,7 @@
       <c r="K169" s="2">
         <v>64219</v>
       </c>
-      <c r="L169" s="2">
+      <c r="L169" s="8">
         <v>61324</v>
       </c>
       <c r="M169" s="4">
@@ -14234,7 +14243,7 @@
       <c r="K171" s="2">
         <v>52782</v>
       </c>
-      <c r="L171" s="2">
+      <c r="L171" s="8">
         <v>37271</v>
       </c>
       <c r="M171" s="4">
@@ -14316,7 +14325,7 @@
       <c r="H172" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L172" s="2">
+      <c r="L172" s="8">
         <v>0</v>
       </c>
       <c r="M172" s="4"/>
@@ -14379,7 +14388,7 @@
       <c r="K173" s="2">
         <v>39242</v>
       </c>
-      <c r="L173" s="2">
+      <c r="L173" s="8">
         <v>25547</v>
       </c>
       <c r="M173" s="4">
@@ -14476,7 +14485,7 @@
       <c r="K174" s="2">
         <v>28039</v>
       </c>
-      <c r="L174" s="2">
+      <c r="L174" s="8">
         <v>28039</v>
       </c>
       <c r="M174" s="4">
@@ -14573,7 +14582,7 @@
       <c r="K175" s="2">
         <v>3990</v>
       </c>
-      <c r="L175" s="2">
+      <c r="L175" s="8">
         <v>0</v>
       </c>
       <c r="M175" s="4">
@@ -15155,7 +15164,7 @@
       <c r="K181" s="2">
         <v>35565</v>
       </c>
-      <c r="L181" s="2">
+      <c r="L181" s="8">
         <v>35565</v>
       </c>
       <c r="M181" s="4">
@@ -15349,7 +15358,7 @@
       <c r="K183" s="2">
         <v>26089</v>
       </c>
-      <c r="L183" s="2">
+      <c r="L183" s="8">
         <v>18010</v>
       </c>
       <c r="M183" s="4">
@@ -15446,7 +15455,7 @@
       <c r="K184" s="2">
         <v>36061</v>
       </c>
-      <c r="L184" s="2">
+      <c r="L184" s="8">
         <v>80119</v>
       </c>
       <c r="M184" s="4">
@@ -15543,7 +15552,7 @@
       <c r="K185" s="2">
         <v>15396</v>
       </c>
-      <c r="L185" s="2">
+      <c r="L185" s="8">
         <v>0</v>
       </c>
       <c r="M185" s="4">
@@ -15640,7 +15649,7 @@
       <c r="K186" s="2">
         <v>48752</v>
       </c>
-      <c r="L186" s="2">
+      <c r="L186" s="8">
         <v>29667</v>
       </c>
       <c r="M186" s="4">
@@ -15737,7 +15746,7 @@
       <c r="K187">
         <v>10589</v>
       </c>
-      <c r="L187" s="2">
+      <c r="L187" s="8">
         <v>0</v>
       </c>
       <c r="M187" s="4">
@@ -16287,7 +16296,7 @@
       <c r="K193">
         <v>33839</v>
       </c>
-      <c r="L193" s="2">
+      <c r="L193" s="8">
         <v>33839</v>
       </c>
       <c r="M193" s="4">
@@ -16465,7 +16474,7 @@
       <c r="K195">
         <v>65393</v>
       </c>
-      <c r="L195" s="2">
+      <c r="L195" s="8">
         <v>60745</v>
       </c>
       <c r="M195" s="4">
@@ -16659,7 +16668,7 @@
       <c r="K197">
         <v>6222</v>
       </c>
-      <c r="L197" s="2">
+      <c r="L197" s="8">
         <v>42053</v>
       </c>
       <c r="M197" s="4">
@@ -16850,7 +16859,7 @@
       <c r="K199">
         <v>3014</v>
       </c>
-      <c r="L199" s="2">
+      <c r="L199" s="8">
         <v>0</v>
       </c>
       <c r="M199" s="4">
@@ -16947,7 +16956,7 @@
       <c r="K200">
         <v>5386</v>
       </c>
-      <c r="L200" s="2">
+      <c r="L200" s="8">
         <v>0</v>
       </c>
       <c r="M200" s="4">
@@ -17044,7 +17053,7 @@
       <c r="K201">
         <v>30396</v>
       </c>
-      <c r="L201" s="2">
+      <c r="L201" s="8">
         <v>29155</v>
       </c>
       <c r="M201" s="4">
@@ -17594,7 +17603,7 @@
       <c r="K207" s="2">
         <v>12170</v>
       </c>
-      <c r="L207" s="2">
+      <c r="L207" s="8">
         <v>12170</v>
       </c>
       <c r="M207" s="4">
@@ -17772,7 +17781,7 @@
       <c r="K209" s="2">
         <v>13693</v>
       </c>
-      <c r="L209" s="2">
+      <c r="L209" s="8">
         <v>13693</v>
       </c>
       <c r="M209" s="4">
@@ -17966,7 +17975,7 @@
       <c r="K211" s="2">
         <v>37490</v>
       </c>
-      <c r="L211" s="2">
+      <c r="L211" s="8">
         <v>37490</v>
       </c>
       <c r="M211" s="4">
@@ -18160,7 +18169,7 @@
       <c r="K213" s="2">
         <v>24298</v>
       </c>
-      <c r="L213" s="2">
+      <c r="L213" s="8">
         <v>24298</v>
       </c>
       <c r="M213" s="4">
@@ -18257,7 +18266,7 @@
       <c r="K214" s="2">
         <v>7281</v>
       </c>
-      <c r="L214" s="2">
+      <c r="L214" s="8">
         <v>7218</v>
       </c>
       <c r="M214" s="4">
@@ -18354,7 +18363,7 @@
       <c r="K215" s="2">
         <v>4963</v>
       </c>
-      <c r="L215" s="2">
+      <c r="L215" s="8">
         <v>0</v>
       </c>
       <c r="M215" s="4">
@@ -18451,7 +18460,7 @@
       <c r="K216" s="2">
         <v>1369</v>
       </c>
-      <c r="L216" s="2">
+      <c r="L216" s="8">
         <v>0</v>
       </c>
       <c r="M216" s="4">
@@ -18997,7 +19006,7 @@
       <c r="K222" s="2">
         <v>12319</v>
       </c>
-      <c r="L222" s="2">
+      <c r="L222" s="8">
         <v>12319</v>
       </c>
       <c r="M222" s="4">
@@ -19179,7 +19188,7 @@
       <c r="K224" s="2">
         <v>25125</v>
       </c>
-      <c r="L224" s="2">
+      <c r="L224" s="8">
         <v>25125</v>
       </c>
       <c r="M224" s="4">
@@ -19361,7 +19370,7 @@
       <c r="K226" s="2">
         <v>29498</v>
       </c>
-      <c r="L226" s="2">
+      <c r="L226" s="8">
         <v>29498</v>
       </c>
       <c r="M226" s="4">
@@ -19543,7 +19552,7 @@
       <c r="K228" s="2">
         <v>65077</v>
       </c>
-      <c r="L228" s="2">
+      <c r="L228" s="8">
         <v>65077</v>
       </c>
       <c r="M228" s="4">
@@ -19634,7 +19643,7 @@
       <c r="K229" s="2">
         <v>0</v>
       </c>
-      <c r="L229" s="2">
+      <c r="L229" s="8">
         <v>0</v>
       </c>
       <c r="M229" s="4">
@@ -19725,7 +19734,7 @@
       <c r="K230" s="2">
         <v>15120</v>
       </c>
-      <c r="L230" s="2">
+      <c r="L230" s="8">
         <v>15120</v>
       </c>
       <c r="M230" s="4">
@@ -19816,7 +19825,7 @@
       <c r="K231" s="2">
         <v>0</v>
       </c>
-      <c r="L231" s="2">
+      <c r="L231" s="8">
         <v>0</v>
       </c>
       <c r="M231" s="4">
@@ -20453,7 +20462,7 @@
       <c r="K238">
         <v>14261</v>
       </c>
-      <c r="L238">
+      <c r="L238" s="6">
         <v>14261</v>
       </c>
       <c r="M238" s="4">
@@ -20635,7 +20644,7 @@
       <c r="K240">
         <v>27577</v>
       </c>
-      <c r="L240">
+      <c r="L240" s="6">
         <v>25021</v>
       </c>
       <c r="M240" s="4">
@@ -20817,7 +20826,7 @@
       <c r="K242">
         <v>58754</v>
       </c>
-      <c r="L242">
+      <c r="L242" s="6">
         <v>52394</v>
       </c>
       <c r="M242" s="4">
@@ -21002,7 +21011,7 @@
       <c r="K244">
         <v>14188</v>
       </c>
-      <c r="L244">
+      <c r="L244" s="6">
         <v>1508</v>
       </c>
       <c r="M244" s="4">
@@ -21096,7 +21105,7 @@
       <c r="K245">
         <v>10035</v>
       </c>
-      <c r="L245">
+      <c r="L245" s="6">
         <v>5155</v>
       </c>
       <c r="M245" s="4">
@@ -21190,7 +21199,7 @@
       <c r="K246">
         <v>7484</v>
       </c>
-      <c r="L246">
+      <c r="L246" s="6">
         <v>5017</v>
       </c>
       <c r="M246" s="4">
@@ -21941,7 +21950,7 @@
       <c r="K254" s="10">
         <v>8046</v>
       </c>
-      <c r="L254">
+      <c r="L254" s="6">
         <v>8046</v>
       </c>
       <c r="M254" s="4">
@@ -22127,7 +22136,7 @@
       <c r="K256" s="10">
         <v>39308</v>
       </c>
-      <c r="L256">
+      <c r="L256" s="6">
         <v>37602</v>
       </c>
       <c r="M256" s="4">
@@ -22313,7 +22322,7 @@
       <c r="K258" s="10">
         <v>87946</v>
       </c>
-      <c r="L258">
+      <c r="L258" s="6">
         <v>80614</v>
       </c>
       <c r="M258" s="4">
@@ -22499,7 +22508,7 @@
       <c r="K260" s="10">
         <v>4599</v>
       </c>
-      <c r="L260">
+      <c r="L260" s="6">
         <v>0</v>
       </c>
       <c r="M260" s="4">
@@ -22592,7 +22601,7 @@
       <c r="K261" s="10">
         <v>4208</v>
       </c>
-      <c r="L261">
+      <c r="L261" s="6">
         <v>223</v>
       </c>
       <c r="M261" s="4">
@@ -22685,7 +22694,7 @@
       <c r="K262" s="10">
         <v>11508</v>
       </c>
-      <c r="L262">
+      <c r="L262" s="6">
         <v>10661</v>
       </c>
       <c r="M262" s="4">
@@ -22716,8 +22725,8 @@
         <f t="shared" si="70"/>
         <v>-1.033333333209157</v>
       </c>
-      <c r="T262" s="2" t="s">
-        <v>10</v>
+      <c r="T262" s="39">
+        <v>801</v>
       </c>
       <c r="U262" s="2" t="s">
         <v>10</v>
@@ -23339,7 +23348,7 @@
       <c r="K269" s="10">
         <v>22081</v>
       </c>
-      <c r="L269">
+      <c r="L269" s="6">
         <v>22081</v>
       </c>
       <c r="M269" s="4">
@@ -23525,7 +23534,7 @@
       <c r="K271" s="10">
         <v>11699</v>
       </c>
-      <c r="L271">
+      <c r="L271" s="6">
         <v>7393</v>
       </c>
       <c r="M271" s="4">
@@ -23711,7 +23720,7 @@
       <c r="K273" s="10">
         <v>11902</v>
       </c>
-      <c r="L273">
+      <c r="L273" s="6">
         <v>8826</v>
       </c>
       <c r="M273" s="4">
@@ -23881,7 +23890,7 @@
       <c r="K275" s="10">
         <v>12503</v>
       </c>
-      <c r="L275">
+      <c r="L275" s="6">
         <v>9761</v>
       </c>
       <c r="M275" s="4">
@@ -24051,7 +24060,7 @@
       <c r="K277" s="10">
         <v>20247</v>
       </c>
-      <c r="L277">
+      <c r="L277" s="6">
         <v>17675</v>
       </c>
       <c r="M277" s="4">
@@ -24144,7 +24153,7 @@
       <c r="K278" s="10">
         <v>15565</v>
       </c>
-      <c r="L278">
+      <c r="L278" s="6">
         <v>10823</v>
       </c>
       <c r="M278" s="4">
@@ -24793,7 +24802,7 @@
       <c r="K285" t="s">
         <v>10</v>
       </c>
-      <c r="L285" t="s">
+      <c r="L285" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M285" s="4">
@@ -24978,7 +24987,7 @@
       <c r="K287" t="s">
         <v>10</v>
       </c>
-      <c r="L287" t="s">
+      <c r="L287" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M287" s="18">
@@ -25158,7 +25167,7 @@
       <c r="K289" t="s">
         <v>10</v>
       </c>
-      <c r="L289" t="s">
+      <c r="L289" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M289" s="18">
@@ -25337,7 +25346,7 @@
       <c r="K291" t="s">
         <v>10</v>
       </c>
-      <c r="L291" t="s">
+      <c r="L291" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M291" s="20">
@@ -25520,7 +25529,7 @@
       <c r="K293" t="s">
         <v>10</v>
       </c>
-      <c r="L293" t="s">
+      <c r="L293" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M293" s="20">
@@ -25704,7 +25713,7 @@
       <c r="K295" t="s">
         <v>10</v>
       </c>
-      <c r="L295" t="s">
+      <c r="L295" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M295" s="20">
@@ -25796,7 +25805,7 @@
       <c r="K296" t="s">
         <v>10</v>
       </c>
-      <c r="L296" t="s">
+      <c r="L296" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M296" s="20">
@@ -25868,14 +25877,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa15ca5b-4450-4fec-8212-75ae51eef6c9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9b77705d-b477-4602-ae15-a5316c12e631" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26074,21 +26081,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa15ca5b-4450-4fec-8212-75ae51eef6c9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9b77705d-b477-4602-ae15-a5316c12e631" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11BA438-8776-4F92-AF90-A30F82347EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA89319-F00C-40E2-B422-E7B15BEFCE0E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aa15ca5b-4450-4fec-8212-75ae51eef6c9"/>
-    <ds:schemaRef ds:uri="9b77705d-b477-4602-ae15-a5316c12e631"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26113,9 +26119,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA89319-F00C-40E2-B422-E7B15BEFCE0E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11BA438-8776-4F92-AF90-A30F82347EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aa15ca5b-4450-4fec-8212-75ae51eef6c9"/>
+    <ds:schemaRef ds:uri="9b77705d-b477-4602-ae15-a5316c12e631"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Tracey's Folder/To use for equations - surveyFactorsAll_Tracey with SSB data.xlsx
+++ b/Tracey's Folder/To use for equations - surveyFactorsAll_Tracey with SSB data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\Tracey's Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DC08F8-ACB1-4C1F-A1A6-4436D1DC3EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9009C9AB-54F7-4340-8E31-6496315E6504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -777,7 +777,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -859,9 +859,6 @@
     </xf>
     <xf numFmtId="22" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1221,34 +1218,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W2" sqref="W2:X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="8" customWidth="1"/>
-    <col min="4" max="5" width="12.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="0.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="0.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="1.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="0.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="15" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="1.140625" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" customWidth="1"/>
+    <col min="11" max="11" width="0.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="0.5703125" style="8" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" style="2" customWidth="1"/>
     <col min="14" max="14" width="9.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" style="4" customWidth="1"/>
     <col min="16" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.140625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="15" style="2" customWidth="1"/>
-    <col min="21" max="21" width="12" style="2" customWidth="1"/>
-    <col min="22" max="24" width="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="0.5703125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="1" style="2" customWidth="1"/>
+    <col min="22" max="22" width="1.28515625" customWidth="1"/>
+    <col min="23" max="24" width="17" customWidth="1"/>
     <col min="25" max="25" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1576,7 +1575,7 @@
       <c r="X5" s="11"/>
       <c r="Y5" s="29"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1620,7 +1619,7 @@
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1779,7 +1778,7 @@
         <v>36413.821527777778</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -22725,7 +22724,7 @@
         <f t="shared" si="70"/>
         <v>-1.033333333209157</v>
       </c>
-      <c r="T262" s="39">
+      <c r="T262" s="2">
         <v>801</v>
       </c>
       <c r="U262" s="2" t="s">
@@ -25869,6 +25868,7 @@
       <c r="AO296" s="22"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO296" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO296">
     <sortCondition ref="B2:B296"/>
   </sortState>
@@ -25877,12 +25877,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa15ca5b-4450-4fec-8212-75ae51eef6c9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9b77705d-b477-4602-ae15-a5316c12e631" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26081,20 +26083,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa15ca5b-4450-4fec-8212-75ae51eef6c9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9b77705d-b477-4602-ae15-a5316c12e631" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA89319-F00C-40E2-B422-E7B15BEFCE0E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11BA438-8776-4F92-AF90-A30F82347EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aa15ca5b-4450-4fec-8212-75ae51eef6c9"/>
+    <ds:schemaRef ds:uri="9b77705d-b477-4602-ae15-a5316c12e631"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26119,12 +26122,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11BA438-8776-4F92-AF90-A30F82347EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA89319-F00C-40E2-B422-E7B15BEFCE0E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aa15ca5b-4450-4fec-8212-75ae51eef6c9"/>
-    <ds:schemaRef ds:uri="9b77705d-b477-4602-ae15-a5316c12e631"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>